--- a/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Other Unit.xlsx
+++ b/BIMASAKTI_11/1.00/PROGRAM/BS Program/SPEC/GSM02500/Other Unit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GS\Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\BIMASAKTI 11\Program Specs\GSM02500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFAC81-E758-44DB-A5DC-86F59985B2D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55707D-F183-4D12-AB57-37273B76BC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{1FF24E20-BBC6-43C0-86AE-C6375945D9D5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -161,6 +161,44 @@
   </si>
   <si>
     <t>Other Unit</t>
+  </si>
+  <si>
+    <t>UnitView</t>
+  </si>
+  <si>
+    <t>GrossSize</t>
+  </si>
+  <si>
+    <t>NetSize</t>
+  </si>
+  <si>
+    <t>LeaseStatus</t>
+  </si>
+  <si>
+    <t>Unit View Code</t>
+  </si>
+  <si>
+    <t>Get data from Master Unit View</t>
+  </si>
+  <si>
+    <t>Gross Area Size</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>Net Area Size</t>
+  </si>
+  <si>
+    <t>Lease Status</t>
+  </si>
+  <si>
+    <t>01 - Vacant | 02 - Offered | 03 - Leased | 
+04 - Pre Close | 05 - Not for Leased | 
+06 - Maintenance</t>
   </si>
 </sst>
 </file>
@@ -227,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -238,6 +276,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,32 +598,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A87FA-2433-46F8-AC5D-D5A065704D53}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -603,6 +647,18 @@
       </c>
       <c r="H1" t="s">
         <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -613,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A5E21-C618-4BCA-95F1-7AD3EE4B7A52}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,19 +833,20 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>20</v>
       </c>
       <c r="M11" t="s">
@@ -800,19 +857,20 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -823,18 +881,20 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="G13" s="10"/>
       <c r="M13" t="s">
         <v>28</v>
       </c>
@@ -843,19 +903,20 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>8</v>
       </c>
       <c r="I14" t="s">
@@ -868,18 +929,114 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
